--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB094.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB094.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3806E5-458A-410F-9D32-D65505874334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57730CB-A47A-4D36-968F-1BB3389D2EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Key ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -782,6 +779,9 @@
 1:普通股
 2:特別股</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,10 +1040,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,7 +1061,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1070,9 +1070,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,16 +1082,13 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1182,9 +1176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1222,9 +1216,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1257,26 +1251,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1309,26 +1286,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1504,36 +1464,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="53" style="33" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="53" style="31" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1541,13 +1501,13 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1557,12 +1517,12 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="40"/>
       <c r="C3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1573,10 +1533,10 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1587,10 +1547,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="42"/>
+      <c r="A5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="40"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1600,34 +1560,34 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="42"/>
+      <c r="A6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="42"/>
+      <c r="A7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="40"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -1644,52 +1604,52 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="G8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>3</v>
@@ -1698,28 +1658,28 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="29">
+      <c r="G10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="J10" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>3</v>
@@ -1728,28 +1688,28 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="G11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="27">
         <v>2</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="J11" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -1758,28 +1718,28 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="G12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="27">
         <v>3</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="J12" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>3</v>
@@ -1788,28 +1748,28 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="G13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="27">
         <v>4</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="J13" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1818,28 +1778,28 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="29">
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="J14" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
@@ -1848,28 +1808,28 @@
         <v>2</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="29">
+      <c r="G15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="27">
         <v>6</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="J15" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -1878,148 +1838,148 @@
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="29">
+      <c r="G16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="27">
         <v>7</v>
       </c>
-      <c r="J16" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="J16" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9">
         <v>8</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="29">
+      <c r="G17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="27">
         <v>8</v>
       </c>
-      <c r="J17" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="J17" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9">
         <v>7</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="29">
+      <c r="H18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="27">
         <v>9</v>
       </c>
-      <c r="J18" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="J18" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9">
         <v>10</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="29">
+      <c r="I19" s="27">
         <v>10</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="J19" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9">
         <v>7</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="27">
+        <v>11</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="29">
-        <v>11</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -2028,28 +1988,28 @@
         <v>8</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="27">
+        <v>12</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="I21" s="29">
-        <v>12</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -2058,26 +2018,26 @@
         <v>2</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="29">
+      <c r="G22" s="25"/>
+      <c r="H22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="27">
         <v>13</v>
       </c>
-      <c r="J22" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="J22" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
@@ -2086,58 +2046,58 @@
         <v>10</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="27">
+        <v>14</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="29">
-        <v>14</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="29">
+      <c r="G24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="27">
         <v>15</v>
       </c>
-      <c r="J24" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="J24" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2146,86 +2106,86 @@
         <v>3</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="29">
+      <c r="G25" s="25"/>
+      <c r="H25" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="27">
         <v>16</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="J25" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9">
         <v>14</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="29">
+      <c r="I26" s="27">
         <v>17</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="J26" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="9">
         <v>10</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="I27" s="27">
+        <v>18</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="13" customFormat="1" ht="171" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="I27" s="29">
-        <v>18</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="171" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
@@ -2234,28 +2194,28 @@
         <v>1</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="27">
+        <v>19</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>21</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="29">
-        <v>19</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2264,28 +2224,28 @@
         <v>1</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="29">
+      <c r="G29" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="27">
         <v>20</v>
       </c>
-      <c r="J29" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="J29" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -2294,58 +2254,58 @@
         <v>10</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="29">
+      <c r="G30" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="27">
         <v>21</v>
       </c>
-      <c r="J30" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="J30" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="9">
         <v>8</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="29">
+      <c r="G31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="27">
         <v>22</v>
       </c>
-      <c r="J31" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="J31" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
@@ -2354,124 +2314,120 @@
         <v>14</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="29">
+      <c r="G32" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="27">
         <v>23</v>
       </c>
-      <c r="J32" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="J32" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="9">
         <v>5</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="G33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="27">
         <v>24</v>
       </c>
-      <c r="J33" s="31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="J33" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>27</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="9">
-        <v>8</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
-        <v>27</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="9">
         <v>6</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="9">
-        <v>8</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -2480,79 +2436,79 @@
         <v>6</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="32"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2568,7 +2524,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:I2 A39:I1048576 A1:B1 E1:I1 A9 D9 F9 K8:XFD8 B34:I34 A4:I6 A3:B3 D3:I3 H9:I9 A8:I8 B36:I37 B35:F35 H35:I35 B38:I38 A7:B7 D7:I7 K2:XFD2 K39:XFD1048576 K1:XFD1 K34:XFD34 K4:XFD6 K3:XFD3 K9:XFD9 K36:XFD37 K35:XFD35 K38:XFD38 K7:XFD7" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:I2 A39:I1048576 A1:B1 E1:I1 A9 D9 F9 K8:XFD8 B34:C34 A4:I6 A3:B3 D3:I3 H9:I9 A8:I8 B37:I37 B35:F35 H35:I35 B38:I38 A7:B7 D7:I7 K2:XFD2 K39:XFD1048576 K1:XFD1 K34:XFD34 K4:XFD6 K3:XFD3 K9:XFD9 K36:XFD37 K35:XFD35 K38:XFD38 K7:XFD7 F34:I34 B36:C36 F36:I36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2618,32 +2574,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="33.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>149</v>
+      <c r="C2" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2662,93 +2618,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="35"/>
+    <col min="1" max="1" width="136.109375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2767,98 +2723,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="35"/>
+    <col min="1" max="1" width="136.109375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>166</v>
+      <c r="A18" s="34" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
